--- a/Game/Resource/Table/Hero.xlsx
+++ b/Game/Resource/Table/Hero.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D7A236-DA69-43E7-8C76-2499D8B36924}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BA0B36-DF26-44A4-AFE2-BFDDF9336B69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Between", "Item", "Id", "1"], ["Consume", "Item", "Id", "1"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Between", "Item", "Id", "12"], ["Consume", "Item", "Id", "1"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Between", "Item", "Id", "13"],["Consume", "Item", "Id", "1"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,10 +496,10 @@
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="53.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +524,11 @@
       <c r="H1" t="s">
         <v>26</v>
       </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -526,8 +553,11 @@
       <c r="H2" t="s">
         <v>27</v>
       </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -552,8 +582,11 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -576,10 +609,13 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -604,8 +640,11 @@
       <c r="H6" t="s">
         <v>24</v>
       </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -629,6 +668,9 @@
       </c>
       <c r="H7" t="s">
         <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Game/Resource/Table/Hero.xlsx
+++ b/Game/Resource/Table/Hero.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BA0B36-DF26-44A4-AFE2-BFDDF9336B69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F677D-43AB-4033-8812-E59973401ECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,26 @@
   </si>
   <si>
     <t>1|2|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeCosts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;Cost&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeCostDic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic&lt;string, Cost&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=[["Between", "Item", "Id", "1"], ["Consume", "Item", "Id", "1"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,9 +517,11 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="53.25" customWidth="1"/>
+    <col min="10" max="10" width="49.625" customWidth="1"/>
+    <col min="11" max="11" width="53.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +549,14 @@
       <c r="I1" t="s">
         <v>29</v>
       </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -556,8 +584,14 @@
       <c r="I2" t="s">
         <v>30</v>
       </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -585,8 +619,14 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -614,8 +654,14 @@
       <c r="I5" t="s">
         <v>31</v>
       </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -643,8 +689,14 @@
       <c r="I6" t="s">
         <v>32</v>
       </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -671,6 +723,12 @@
       </c>
       <c r="I7" t="s">
         <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Game/Resource/Table/Hero.xlsx
+++ b/Game/Resource/Table/Hero.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F677D-43AB-4033-8812-E59973401ECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46041CE-F4A4-427E-B598-D5C3A36FA482}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,47 +138,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UpgradeCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["Between", "Item", "Id", "1"], ["Consume", "Item", "Id", "1"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["Between", "Item", "Id", "12"], ["Consume", "Item", "Id", "1"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["Between", "Item", "Id", "13"],["Consume", "Item", "Id", "1"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1|2|3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpgradeCosts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;Cost&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpgradeCostDic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dic&lt;string, Cost&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=[["Between", "Item", "Id", "1"], ["Consume", "Item", "Id", "1"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,7 +481,7 @@
     <col min="11" max="11" width="53.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,17 +506,8 @@
       <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -581,17 +532,8 @@
       <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -616,17 +558,8 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -649,19 +582,10 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -686,17 +610,8 @@
       <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -720,15 +635,6 @@
       </c>
       <c r="H7" t="s">
         <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Game/Resource/Table/Hero.xlsx
+++ b/Game/Resource/Table/Hero.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46041CE-F4A4-427E-B598-D5C3A36FA482}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0A8DB-C952-4E99-A22B-83DD467DFBDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>1|2|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,7 +489,7 @@
     <col min="11" max="11" width="53.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,8 +514,11 @@
       <c r="H1" t="s">
         <v>26</v>
       </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -532,8 +543,11 @@
       <c r="H2" t="s">
         <v>27</v>
       </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -558,8 +572,11 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -584,8 +601,11 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -610,8 +630,11 @@
       <c r="H6" t="s">
         <v>24</v>
       </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -635,6 +658,9 @@
       </c>
       <c r="H7" t="s">
         <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Game/Resource/Table/Hero.xlsx
+++ b/Game/Resource/Table/Hero.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0A8DB-C952-4E99-A22B-83DD467DFBDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB29D24-4D1E-477C-92F5-AE10568B3450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>1|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-500|2-Battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-500-1|3-500-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -484,12 +496,10 @@
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="53.25" customWidth="1"/>
-    <col min="10" max="10" width="49.625" customWidth="1"/>
-    <col min="11" max="11" width="53.25" customWidth="1"/>
+    <col min="9" max="11" width="53.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +527,11 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -546,8 +559,11 @@
       <c r="I2" t="s">
         <v>27</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -575,8 +591,11 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -604,8 +623,11 @@
       <c r="I5" t="s">
         <v>31</v>
       </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -633,8 +655,11 @@
       <c r="I6" t="s">
         <v>31</v>
       </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -661,6 +686,9 @@
       </c>
       <c r="I7" t="s">
         <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
